--- a/race.test.template - Copy.xlsx
+++ b/race.test.template - Copy.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\fpv drone stuff\Github\SL-automated-race-director\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FPV drone stuff\Github projects\SL-automated-race-director\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B4B4F6-10B2-4F39-A5BF-A7BE3C99664E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B28B2B-F2B3-4EEC-A87F-847E8AF3D627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="285" windowWidth="22980" windowHeight="14355" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,13 @@
     <sheet name="round number 5.0" sheetId="5" r:id="rId5"/>
     <sheet name="round number 6.0" sheetId="6" r:id="rId6"/>
     <sheet name="round number 7.0" sheetId="7" r:id="rId7"/>
-    <sheet name="round number 8.0" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="23">
   <si>
     <t>round number</t>
   </si>
@@ -97,15 +96,12 @@
   <si>
     <t>7.0</t>
   </si>
-  <si>
-    <t>8.0</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -150,11 +146,6 @@
       <sz val="10"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -164,7 +155,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -262,26 +253,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -307,9 +283,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -536,14 +509,14 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -560,7 +533,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -577,7 +550,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -591,7 +564,7 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
@@ -605,7 +578,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
@@ -619,7 +592,7 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
@@ -633,7 +606,7 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
@@ -647,7 +620,7 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
@@ -661,7 +634,7 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
@@ -675,7 +648,7 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
@@ -689,7 +662,7 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
@@ -703,7 +676,7 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -730,9 +703,9 @@
       <selection activeCell="F2" sqref="F2:F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -752,7 +725,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -772,7 +745,7 @@
         <v>200.13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -792,7 +765,7 @@
         <v>202.14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -812,7 +785,7 @@
         <v>205.87</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -832,7 +805,7 @@
         <v>206.18</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -852,7 +825,7 @@
         <v>207.09</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -872,7 +845,7 @@
         <v>211.52</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -892,7 +865,7 @@
         <v>208.32</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -912,7 +885,7 @@
         <v>241.34</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -932,7 +905,7 @@
         <v>231.3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -952,7 +925,7 @@
         <v>255.95</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -985,9 +958,9 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1007,7 +980,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -1027,7 +1000,7 @@
         <v>201.47</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -1047,7 +1020,7 @@
         <v>203.02</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1067,7 +1040,7 @@
         <v>203.54</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1087,7 +1060,7 @@
         <v>159.44</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -1107,7 +1080,7 @@
         <v>217.9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1127,7 +1100,7 @@
         <v>210.93</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1147,7 +1120,7 @@
         <v>210.16</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1167,7 +1140,7 @@
         <v>228.6</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1187,7 +1160,7 @@
         <v>232.17</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -1207,7 +1180,7 @@
         <v>258.14999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1227,7 +1200,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F13" s="1"/>
     </row>
   </sheetData>
@@ -1243,9 +1216,9 @@
       <selection activeCell="F2" sqref="F2:F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1265,7 +1238,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -1285,7 +1258,7 @@
         <v>159.88</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1305,7 +1278,7 @@
         <v>201.88</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1325,7 +1298,7 @@
         <v>211.88</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1345,7 +1318,7 @@
         <v>201.43</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1365,7 +1338,7 @@
         <v>208.35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1385,7 +1358,7 @@
         <v>214.83</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1405,7 +1378,7 @@
         <v>208.4</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1425,7 +1398,7 @@
         <v>222.3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1445,7 +1418,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1465,7 +1438,7 @@
         <v>255.88</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -1498,9 +1471,9 @@
       <selection activeCell="F2" sqref="F2:F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1520,7 +1493,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -1540,7 +1513,7 @@
         <v>159.88</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -1560,7 +1533,7 @@
         <v>201.88</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1580,7 +1553,7 @@
         <v>211.88</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1600,7 +1573,7 @@
         <v>201.43</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1620,7 +1593,7 @@
         <v>208.35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1640,7 +1613,7 @@
         <v>214.83</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1660,7 +1633,7 @@
         <v>208.4</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1680,7 +1653,7 @@
         <v>222.3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1700,7 +1673,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1720,7 +1693,7 @@
         <v>255.88</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -1753,9 +1726,9 @@
       <selection activeCell="F2" sqref="F2:F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1775,7 +1748,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -1795,7 +1768,7 @@
         <v>159.88</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1815,7 +1788,7 @@
         <v>201.88</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1835,7 +1808,7 @@
         <v>211.88</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1855,7 +1828,7 @@
         <v>201.43</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1875,7 +1848,7 @@
         <v>208.35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -1895,7 +1868,7 @@
         <v>214.83</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1915,7 +1888,7 @@
         <v>208.4</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1935,7 +1908,7 @@
         <v>222.3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1955,7 +1928,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1975,7 +1948,7 @@
         <v>255.88</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -2004,13 +1977,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -2030,7 +2003,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -2050,7 +2023,7 @@
         <v>159.88</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -2070,7 +2043,7 @@
         <v>201.88</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -2090,7 +2063,7 @@
         <v>211.88</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -2110,7 +2083,7 @@
         <v>201.43</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -2130,7 +2103,7 @@
         <v>208.35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -2150,7 +2123,7 @@
         <v>214.83</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -2170,7 +2143,7 @@
         <v>208.4</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -2190,7 +2163,7 @@
         <v>222.3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -2210,7 +2183,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -2230,7 +2203,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -2248,259 +2221,6 @@
       </c>
       <c r="F12">
         <v>351</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:F12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2">
-        <v>65</v>
-      </c>
-      <c r="D2">
-        <v>11</v>
-      </c>
-      <c r="E2">
-        <v>76</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>56</v>
-      </c>
-      <c r="D3">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>65</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>49</v>
-      </c>
-      <c r="D4">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>59</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5">
-        <v>52</v>
-      </c>
-      <c r="D5">
-        <v>6</v>
-      </c>
-      <c r="E5">
-        <v>58</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6">
-        <v>43</v>
-      </c>
-      <c r="D6">
-        <v>8</v>
-      </c>
-      <c r="E6">
-        <v>51</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7">
-        <v>35</v>
-      </c>
-      <c r="D7">
-        <v>7</v>
-      </c>
-      <c r="E7">
-        <v>42</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8">
-        <v>36</v>
-      </c>
-      <c r="D8">
-        <v>5</v>
-      </c>
-      <c r="E8">
-        <v>41</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9">
-        <v>23</v>
-      </c>
-      <c r="D9">
-        <v>4</v>
-      </c>
-      <c r="E9">
-        <v>27</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10">
-        <v>16</v>
-      </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
-      <c r="E10">
-        <v>19</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11">
-        <v>15</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11">
-        <v>17</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12">
-        <v>6</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>7</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
